--- a/biology/Botanique/Charles_Krug/Charles_Krug.xlsx
+++ b/biology/Botanique/Charles_Krug/Charles_Krug.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Krug (1825–1892) a été parmi les pionniers de la vinification dans la Napa Valley, en Californie, et a été le fondateur de la Charles Krug Winery.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Krug est venu de Prusse aux États-Unis en 1847. Il devient citoyen américain en 1852. 
 Il débute comme apprenti vigneron pour les familles Haraszthy et Patchett, avant de s'installer à son compte.
-Il épouse Carolina Bale en 1860, la fille d'un des pionniers de la Napa Valley et la petite fille de María Isidora Vallejo, descendante de l'influente famille Vallejo[1].
-Krug est introduit dans le Hall of fame du Culinary Institute of America en 2007[2].
+Il épouse Carolina Bale en 1860, la fille d'un des pionniers de la Napa Valley et la petite fille de María Isidora Vallejo, descendante de l'influente famille Vallejo.
+Krug est introduit dans le Hall of fame du Culinary Institute of America en 2007.
 </t>
         </is>
       </c>
